--- a/Structure Features Decomp.xlsx
+++ b/Structure Features Decomp.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\OneDrive\Documents\Dev_Projects\Use_cases_framework\decomp_yoy_growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC854656-0D5D-46C0-8F95-CC2D739D66CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE9075-427D-4974-BA28-E53D0D55BBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4197CF-8EC4-4512-821C-5AFAFF34C94A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="108">
   <si>
     <t>Sales</t>
   </si>
@@ -302,6 +305,166 @@
   <si>
     <t>ACS contribution = ACS mix contribution + ACS within contribution</t>
   </si>
+  <si>
+    <t>YoY 23 vs 24</t>
+  </si>
+  <si>
+    <t>1.2 PP</t>
+  </si>
+  <si>
+    <t>Dayparts</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Product 
+Categories</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Front Counter</t>
+  </si>
+  <si>
+    <t>Drive Thru</t>
+  </si>
+  <si>
+    <t>Kiosk</t>
+  </si>
+  <si>
+    <t>Mccafe</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>0.0 PP</t>
+  </si>
+  <si>
+    <t>-0.1PP</t>
+  </si>
+  <si>
+    <t>0.2 PP</t>
+  </si>
+  <si>
+    <t>-0.3 PP</t>
+  </si>
+  <si>
+    <t>1.0 PP</t>
+  </si>
+  <si>
+    <t>0.9 PP</t>
+  </si>
+  <si>
+    <t>-0.2 PP</t>
+  </si>
+  <si>
+    <t>2.3 PP</t>
+  </si>
+  <si>
+    <t>0.6 PP</t>
+  </si>
+  <si>
+    <t>-2.4 PP</t>
+  </si>
+  <si>
+    <t>3.9 PP</t>
+  </si>
+  <si>
+    <t>-0.1 PP</t>
+  </si>
+  <si>
+    <t>-0.6 PP</t>
+  </si>
+  <si>
+    <t>2023 share</t>
+  </si>
+  <si>
+    <t>2024 YoY</t>
+  </si>
+  <si>
+    <t>Mix Effect</t>
+  </si>
+  <si>
+    <t>Within Effect</t>
+  </si>
+  <si>
+    <t>Segment2</t>
+  </si>
+  <si>
+    <t>Segment3</t>
+  </si>
+  <si>
+    <t>2023 ACS</t>
+  </si>
+  <si>
+    <t>2024 YoY %</t>
+  </si>
+  <si>
+    <t>YoY GC share delta</t>
+  </si>
+  <si>
+    <t>2024 GC Share</t>
+  </si>
+  <si>
+    <t>YoY ACS delta</t>
+  </si>
+  <si>
+    <t>Segment1</t>
+  </si>
+  <si>
+    <t>Traffic effect</t>
+  </si>
+  <si>
+    <t>Ticket effect</t>
+  </si>
+  <si>
+    <t>Customer shift effect</t>
+  </si>
+  <si>
+    <t>Within segment, ACS behavior</t>
+  </si>
+  <si>
+    <t>(pricing, promo, items)</t>
+  </si>
+  <si>
+    <t>(upgrading/downgrading)</t>
+  </si>
+  <si>
+    <t>to higher/lower ticket segment</t>
+  </si>
+  <si>
+    <t>1 Traffic Effect: GCS contribution (pp) = Base-year GCS share × Within-daypart YoY growth</t>
+  </si>
+  <si>
+    <t>2 Ticket Effect: ACS contribution = ACS mix contribution + ACS within contribution</t>
+  </si>
+  <si>
+    <t>3 Customer shift effect: ACS mix contribution = Change in GCS share × Base-period segment ACS; Holding segment-level ACS constant as last year, customers moved toward/away higher-ticket segment</t>
+  </si>
+  <si>
+    <t>4 Within-segment ticket pressure: ACS within contribution = Current-period GCS share × Change in segment ACS</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +479,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +535,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +560,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +917,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -774,50 +975,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -826,10 +992,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -853,15 +1017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,9 +1030,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,10 +1049,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1217,11 +1498,2302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC1B6B0-472D-4B50-B71D-101D956C8614}">
-  <dimension ref="A1:AD52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7479694F-1D62-45C8-B8AD-5E7927A4D65C}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="14.26953125" customWidth="1"/>
+    <col min="28" max="28" width="17.54296875" customWidth="1"/>
+    <col min="30" max="30" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.36328125" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" customWidth="1"/>
+    <col min="35" max="35" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="B1" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="4">
+        <v>481513</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41613</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3/D3</f>
+        <v>11.571215725854902</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="4">
+        <v>494078</v>
+      </c>
+      <c r="D4" s="5">
+        <v>42138</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4/D4</f>
+        <v>11.725236128909772</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4/C3-1</f>
+        <v>2.6094830253804213E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D4/D3-1</f>
+        <v>1.2616249729651807E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E4/E3-1</f>
+        <v>1.3310650039193739E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f>E4-E3</f>
+        <v>0.15402040305487041</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="52">
+        <f>SUM(D6:E6)</f>
+        <v>2.6094830253804015E-2</v>
+      </c>
+      <c r="D6" s="49">
+        <f>D5+0.5*(D5*E5)</f>
+        <v>1.2700214972131042E-2</v>
+      </c>
+      <c r="E6" s="50">
+        <f>E5+0.5*(E5*D5)</f>
+        <v>1.3394615281672973E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="29"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61">
+        <f>SUM(T22:T27)</f>
+        <v>3.1511544011544004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65">
+        <f>SUM(U22:U27)</f>
+        <v>-1.8200893972350109E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="55"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="21" x14ac:dyDescent="0.5">
+      <c r="B17" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="R17" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="179">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="181"/>
+      <c r="F19" s="180">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="181"/>
+      <c r="K19" s="179">
+        <v>2023</v>
+      </c>
+      <c r="L19" s="181"/>
+      <c r="M19" s="179">
+        <v>2024</v>
+      </c>
+      <c r="N19" s="181"/>
+      <c r="O19" s="179" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="181"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="180"/>
+      <c r="AA20" s="181"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="I21" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="77"/>
+      <c r="R21" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="97"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="107">
+        <v>2023</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>2024</v>
+      </c>
+      <c r="AA21" s="108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="191"/>
+      <c r="B22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="75">
+        <f>J22+S22</f>
+        <v>6.6881044443387189E-2</v>
+      </c>
+      <c r="D22" s="78">
+        <v>120378.25</v>
+      </c>
+      <c r="E22" s="79">
+        <f t="shared" ref="E22:E27" si="0">D22/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="66">
+        <v>138341.84</v>
+      </c>
+      <c r="G22" s="79">
+        <f t="shared" ref="G22:G27" si="1">F22/$C$4</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="88">
+        <f>L22*O22</f>
+        <v>3.3154062432412909E-2</v>
+      </c>
+      <c r="K22" s="90">
+        <v>9154.86</v>
+      </c>
+      <c r="L22" s="79">
+        <f t="shared" ref="L22:L27" si="2">K22/$D$3</f>
+        <v>0.22</v>
+      </c>
+      <c r="M22" s="90">
+        <v>10534.5</v>
+      </c>
+      <c r="N22" s="79">
+        <f t="shared" ref="N22:N27" si="3">M22/$D$4</f>
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="92">
+        <f t="shared" ref="O22:O27" si="4">M22/K22-1</f>
+        <v>0.15070028378369504</v>
+      </c>
+      <c r="P22" s="93">
+        <f t="shared" ref="P22:P27" si="5">N22-L22</f>
+        <v>0.03</v>
+      </c>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="86">
+        <f>V22/$E$3</f>
+        <v>3.3726982010974287E-2</v>
+      </c>
+      <c r="T22" s="92">
+        <f>W22/$E$3</f>
+        <v>3.4090909090909081E-2</v>
+      </c>
+      <c r="U22" s="79">
+        <f t="shared" ref="S22:U27" si="6">X22/$E$3</f>
+        <v>-3.639270799347937E-4</v>
+      </c>
+      <c r="V22" s="98">
+        <f>SUM(W22:X22)</f>
+        <v>0.39026218463101109</v>
+      </c>
+      <c r="W22" s="6">
+        <f>P22*Y22</f>
+        <v>0.39447326338141703</v>
+      </c>
+      <c r="X22" s="32">
+        <f>N22*AA22</f>
+        <v>-4.2110787504059388E-3</v>
+      </c>
+      <c r="Y22" s="102">
+        <f t="shared" ref="Y22:Y27" si="7">D22/K22</f>
+        <v>13.149108779380569</v>
+      </c>
+      <c r="Z22" s="96">
+        <f t="shared" ref="Z22:Z27" si="8">F22/M22</f>
+        <v>13.132264464378945</v>
+      </c>
+      <c r="AA22" s="103">
+        <f t="shared" ref="AA22:AA27" si="9">Z22-Y22</f>
+        <v>-1.6844315001623755E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="191"/>
+      <c r="B23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="75">
+        <f t="shared" ref="C23:C27" si="10">J23+S23</f>
+        <v>6.6628719448794199E-2</v>
+      </c>
+      <c r="D23" s="78">
+        <v>120378.25</v>
+      </c>
+      <c r="E23" s="79">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="66">
+        <v>138341.84000000003</v>
+      </c>
+      <c r="G23" s="79">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="88">
+        <f t="shared" ref="J23:J27" si="11">L23*O23</f>
+        <v>3.2901737437819899E-2</v>
+      </c>
+      <c r="K23" s="90">
+        <v>8322.6</v>
+      </c>
+      <c r="L23" s="79">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="90">
+        <v>9691.74</v>
+      </c>
+      <c r="N23" s="79">
+        <f t="shared" si="3"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O23" s="92">
+        <f t="shared" si="4"/>
+        <v>0.1645086871890995</v>
+      </c>
+      <c r="P23" s="93">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="86">
+        <f>V23/$E$3</f>
+        <v>3.3726982010974307E-2</v>
+      </c>
+      <c r="T23" s="92">
+        <f t="shared" si="6"/>
+        <v>3.7499999999999964E-2</v>
+      </c>
+      <c r="U23" s="79">
+        <f t="shared" si="6"/>
+        <v>-3.7730179890256578E-3</v>
+      </c>
+      <c r="V23" s="98">
+        <f t="shared" ref="V23:V27" si="12">SUM(W23:X23)</f>
+        <v>0.39026218463101126</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" ref="W23:W27" si="13">P23*Y23</f>
+        <v>0.43392058971955838</v>
+      </c>
+      <c r="X23" s="32">
+        <f t="shared" ref="X23:X27" si="14">N23*AA23</f>
+        <v>-4.3658405088547132E-2</v>
+      </c>
+      <c r="Y23" s="102">
+        <f t="shared" si="7"/>
+        <v>14.464019657318627</v>
+      </c>
+      <c r="Z23" s="96">
+        <f t="shared" si="8"/>
+        <v>14.274200504759726</v>
+      </c>
+      <c r="AA23" s="103">
+        <f t="shared" si="9"/>
+        <v>-0.18981915255890058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="191"/>
+      <c r="B24" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="75">
+        <f t="shared" si="10"/>
+        <v>-3.9096030509638099E-2</v>
+      </c>
+      <c r="D24" s="78">
+        <v>24075.65</v>
+      </c>
+      <c r="E24" s="79">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="66">
+        <v>14822.34</v>
+      </c>
+      <c r="G24" s="79">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="88">
+        <f t="shared" si="11"/>
+        <v>-1.9495350010813921E-2</v>
+      </c>
+      <c r="K24" s="90">
+        <v>2496.7799999999997</v>
+      </c>
+      <c r="L24" s="79">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="M24" s="90">
+        <v>1685.52</v>
+      </c>
+      <c r="N24" s="79">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="O24" s="92">
+        <f t="shared" si="4"/>
+        <v>-0.32492250018023205</v>
+      </c>
+      <c r="P24" s="93">
+        <f t="shared" si="5"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="86">
+        <f t="shared" si="6"/>
+        <v>-1.9600680498824182E-2</v>
+      </c>
+      <c r="T24" s="92">
+        <f t="shared" si="6"/>
+        <v>-1.6666666666666659E-2</v>
+      </c>
+      <c r="U24" s="79">
+        <f t="shared" si="6"/>
+        <v>-2.9340138321575222E-3</v>
+      </c>
+      <c r="V24" s="98">
+        <f t="shared" si="12"/>
+        <v>-0.22680370242545189</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.19285359543091496</v>
+      </c>
+      <c r="X24" s="32">
+        <f t="shared" si="14"/>
+        <v>-3.3950106994536926E-2</v>
+      </c>
+      <c r="Y24" s="102">
+        <f t="shared" si="7"/>
+        <v>9.6426797715457528</v>
+      </c>
+      <c r="Z24" s="96">
+        <f t="shared" si="8"/>
+        <v>8.7939270966823297</v>
+      </c>
+      <c r="AA24" s="103">
+        <f t="shared" si="9"/>
+        <v>-0.8487526748634231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="191"/>
+      <c r="B25" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="75">
+        <f t="shared" si="10"/>
+        <v>-9.2887462571305951E-2</v>
+      </c>
+      <c r="D25" s="78">
+        <v>144453.9</v>
+      </c>
+      <c r="E25" s="79">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="66">
+        <v>123519.5</v>
+      </c>
+      <c r="G25" s="79">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="88">
+        <f t="shared" si="11"/>
+        <v>-4.6215125081104445E-2</v>
+      </c>
+      <c r="K25" s="90">
+        <v>14564.55</v>
+      </c>
+      <c r="L25" s="79">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="M25" s="90">
+        <v>12641.4</v>
+      </c>
+      <c r="N25" s="79">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="O25" s="92">
+        <f t="shared" si="4"/>
+        <v>-0.13204321451744128</v>
+      </c>
+      <c r="P25" s="93">
+        <f t="shared" si="5"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="86">
+        <f t="shared" si="6"/>
+        <v>-4.6672337490201513E-2</v>
+      </c>
+      <c r="T25" s="92">
+        <f t="shared" si="6"/>
+        <v>-4.2857142857142844E-2</v>
+      </c>
+      <c r="U25" s="79">
+        <f t="shared" si="6"/>
+        <v>-3.8151946330586689E-3</v>
+      </c>
+      <c r="V25" s="98">
+        <f t="shared" si="12"/>
+        <v>-0.54005568552902705</v>
+      </c>
+      <c r="W25" s="6">
+        <f>P25*Y25</f>
+        <v>-0.49590924539378134</v>
+      </c>
+      <c r="X25" s="32">
+        <f t="shared" si="14"/>
+        <v>-4.4146440135245692E-2</v>
+      </c>
+      <c r="Y25" s="102">
+        <f t="shared" si="7"/>
+        <v>9.918184907875629</v>
+      </c>
+      <c r="Z25" s="96">
+        <f t="shared" si="8"/>
+        <v>9.77103010742481</v>
+      </c>
+      <c r="AA25" s="103">
+        <f t="shared" si="9"/>
+        <v>-0.14715480045081897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="191"/>
+      <c r="B26" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="75">
+        <f t="shared" si="10"/>
+        <v>7.325822247884424E-2</v>
+      </c>
+      <c r="D26" s="78">
+        <v>48151.3</v>
+      </c>
+      <c r="E26" s="79">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="66">
+        <v>74111.7</v>
+      </c>
+      <c r="G26" s="79">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="88">
+        <f t="shared" si="11"/>
+        <v>2.1261624972965177E-2</v>
+      </c>
+      <c r="K26" s="90">
+        <v>3329.04</v>
+      </c>
+      <c r="L26" s="79">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="M26" s="90">
+        <v>4213.8</v>
+      </c>
+      <c r="N26" s="79">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="92">
+        <f t="shared" si="4"/>
+        <v>0.2657703121620647</v>
+      </c>
+      <c r="P26" s="93">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="86">
+        <f t="shared" si="6"/>
+        <v>5.1996597505879066E-2</v>
+      </c>
+      <c r="T26" s="92">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000005E-2</v>
+      </c>
+      <c r="U26" s="79">
+        <f t="shared" si="6"/>
+        <v>2.6996597505879055E-2</v>
+      </c>
+      <c r="V26" s="98">
+        <f t="shared" si="12"/>
+        <v>0.60166384675097562</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="13"/>
+        <v>0.28928039314637261</v>
+      </c>
+      <c r="X26" s="32">
+        <f t="shared" si="14"/>
+        <v>0.31238345360460296</v>
+      </c>
+      <c r="Y26" s="102">
+        <f t="shared" si="7"/>
+        <v>14.464019657318627</v>
+      </c>
+      <c r="Z26" s="96">
+        <f t="shared" si="8"/>
+        <v>17.587854193364656</v>
+      </c>
+      <c r="AA26" s="103">
+        <f t="shared" si="9"/>
+        <v>3.1238345360460293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="191"/>
+      <c r="B27" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="76">
+        <f t="shared" si="10"/>
+        <v>-4.8857593521235879E-2</v>
+      </c>
+      <c r="D27" s="80">
+        <v>24075.65</v>
+      </c>
+      <c r="E27" s="82">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="81">
+        <v>4940.78</v>
+      </c>
+      <c r="G27" s="82">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="89">
+        <f t="shared" si="11"/>
+        <v>-8.9907000216278236E-3</v>
+      </c>
+      <c r="K27" s="91">
+        <v>3745.1699999999987</v>
+      </c>
+      <c r="L27" s="82">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="M27" s="91">
+        <v>3371.04</v>
+      </c>
+      <c r="N27" s="82">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="O27" s="94">
+        <f>M27/K27-1</f>
+        <v>-9.9896666906975851E-2</v>
+      </c>
+      <c r="P27" s="95">
+        <f>N27-L27</f>
+        <v>-9.9999999999999672E-3</v>
+      </c>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="87">
+        <f t="shared" si="6"/>
+        <v>-3.9866893499608057E-2</v>
+      </c>
+      <c r="T27" s="94">
+        <f t="shared" si="6"/>
+        <v>-5.5555555555555384E-3</v>
+      </c>
+      <c r="U27" s="82">
+        <f t="shared" si="6"/>
+        <v>-3.4311337944052521E-2</v>
+      </c>
+      <c r="V27" s="99">
+        <f t="shared" si="12"/>
+        <v>-0.46130842500364733</v>
+      </c>
+      <c r="W27" s="100">
+        <f>P27*Y27</f>
+        <v>-6.4284531810304815E-2</v>
+      </c>
+      <c r="X27" s="101">
+        <f t="shared" si="14"/>
+        <v>-0.39702389319334253</v>
+      </c>
+      <c r="Y27" s="104">
+        <f t="shared" si="7"/>
+        <v>6.4284531810305028</v>
+      </c>
+      <c r="Z27" s="105">
+        <f t="shared" si="8"/>
+        <v>1.4656545161137216</v>
+      </c>
+      <c r="AA27" s="106">
+        <f t="shared" si="9"/>
+        <v>-4.9627986649167815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="67">
+        <f>SUM(C22:C27)</f>
+        <v>2.5926899768845699E-2</v>
+      </c>
+      <c r="D28" s="21">
+        <f>SUM(D22:D27)</f>
+        <v>481513.00000000006</v>
+      </c>
+      <c r="E28" s="68">
+        <f>SUM(E22:E27)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="21">
+        <f>SUM(F22:F27)</f>
+        <v>494078.00000000012</v>
+      </c>
+      <c r="G28" s="68">
+        <f>SUM(G22:G27)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="28">
+        <f>SUM(J22:J27)</f>
+        <v>1.2616249729651788E-2</v>
+      </c>
+      <c r="K28" s="21">
+        <f>SUM(K22:K27)</f>
+        <v>41612.999999999993</v>
+      </c>
+      <c r="L28" s="22">
+        <f>SUM(L22:L27)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="21">
+        <f>SUM(M22:M27)</f>
+        <v>42138</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" ref="N28" si="15">SUM(N22:N27)</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="67">
+        <f>SUM(S22:S27)</f>
+        <v>1.3310650039193898E-2</v>
+      </c>
+      <c r="V28" s="33">
+        <f>SUM(V22:V27)</f>
+        <v>0.15402040305487164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+    </row>
+    <row r="33" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+    </row>
+    <row r="34" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+    </row>
+    <row r="36" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+    </row>
+    <row r="37" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+    </row>
+    <row r="38" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+    </row>
+    <row r="39" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Y20:AA20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177D2392-B10F-4AAE-920B-006599E31225}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B1:N73"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.1796875" style="111" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="111" customWidth="1"/>
+    <col min="3" max="3" width="4.08984375" style="111" customWidth="1"/>
+    <col min="4" max="4" width="10" style="111" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" style="111" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" style="111" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="111" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="111" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="111" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="111" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="111" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="111"/>
+    <col min="14" max="14" width="10" style="111" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F3" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I35*100,"0.0") &amp; " PP"</f>
+        <v>3.3 PP</v>
+      </c>
+      <c r="I3" s="128">
+        <f>'Sheet1 (2)'!K35</f>
+        <v>0.22</v>
+      </c>
+      <c r="J3" s="129">
+        <f>'Sheet1 (2)'!N35</f>
+        <v>0.15070028378369504</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="130"/>
+      <c r="G4" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I36*100,"0.0") &amp; " PP"</f>
+        <v>3.3 PP</v>
+      </c>
+      <c r="I4" s="128">
+        <f>'Sheet1 (2)'!K36</f>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="129">
+        <f>'Sheet1 (2)'!N36</f>
+        <v>0.1645086871890995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="D5" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="130"/>
+      <c r="G5" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I37*100,"0.0") &amp; " PP"</f>
+        <v>-1.9 PP</v>
+      </c>
+      <c r="I5" s="128">
+        <f>'Sheet1 (2)'!K37</f>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="J5" s="129">
+        <f>'Sheet1 (2)'!N37</f>
+        <v>-0.32492250018023205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="120" t="str">
+        <f>TEXT('Sheet1 (2)'!C6*100,"0.00") &amp; " PP"</f>
+        <v>1.27 PP</v>
+      </c>
+      <c r="F6" s="130"/>
+      <c r="G6" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I38*100,"0.0") &amp; " PP"</f>
+        <v>-4.6 PP</v>
+      </c>
+      <c r="I6" s="128">
+        <f>'Sheet1 (2)'!K38</f>
+        <v>0.35</v>
+      </c>
+      <c r="J6" s="129">
+        <f>'Sheet1 (2)'!N38</f>
+        <v>-0.13204321451744128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="131"/>
+      <c r="G7" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I39*100,"0.0") &amp; " PP"</f>
+        <v>2.1 PP</v>
+      </c>
+      <c r="I7" s="128">
+        <f>'Sheet1 (2)'!K39</f>
+        <v>0.08</v>
+      </c>
+      <c r="J7" s="129">
+        <f>'Sheet1 (2)'!N39</f>
+        <v>0.2657703121620647</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="132"/>
+      <c r="G8" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="134" t="str">
+        <f>TEXT('Sheet1 (2)'!I40*100,"0.0") &amp; " PP"</f>
+        <v>-0.9 PP</v>
+      </c>
+      <c r="I8" s="135">
+        <f>'Sheet1 (2)'!K40</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="J8" s="136">
+        <f>'Sheet1 (2)'!N40</f>
+        <v>-9.9896666906975851E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="115"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="158" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="159">
+        <f>'Sheet1 (2)'!B5</f>
+        <v>2.6094830253804213E-2</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I46*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I11" s="128">
+        <f>'Sheet1 (2)'!K46</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="129">
+        <f>'Sheet1 (2)'!N46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="130"/>
+      <c r="G12" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I47*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I12" s="128">
+        <f>'Sheet1 (2)'!K47</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="129">
+        <f>'Sheet1 (2)'!N47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="130"/>
+      <c r="G13" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I48*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I13" s="128">
+        <f>'Sheet1 (2)'!K48</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="129">
+        <f>'Sheet1 (2)'!N48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="130"/>
+      <c r="G14" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I49*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I14" s="128">
+        <f>'Sheet1 (2)'!K49</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="129">
+        <f>'Sheet1 (2)'!N49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="131"/>
+      <c r="G15" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I50*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I15" s="128">
+        <f>'Sheet1 (2)'!K50</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="129">
+        <f>'Sheet1 (2)'!N50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="132"/>
+      <c r="G16" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="134" t="str">
+        <f>TEXT('Sheet1 (2)'!I51*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I16" s="135">
+        <f>'Sheet1 (2)'!K51</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="136">
+        <f>'Sheet1 (2)'!N51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="114"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F19" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I54*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I19" s="128">
+        <f>'Sheet1 (2)'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="129">
+        <f>'Sheet1 (2)'!N54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F20" s="130"/>
+      <c r="G20" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I55*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I20" s="128">
+        <f>'Sheet1 (2)'!K55</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="129">
+        <f>'Sheet1 (2)'!N55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F21" s="130"/>
+      <c r="G21" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I56*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I21" s="128">
+        <f>'Sheet1 (2)'!K56</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="129">
+        <f>'Sheet1 (2)'!N56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F22" s="130"/>
+      <c r="G22" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I57*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I22" s="128">
+        <f>'Sheet1 (2)'!K57</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="129">
+        <f>'Sheet1 (2)'!N57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F23" s="131"/>
+      <c r="G23" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="127" t="str">
+        <f>TEXT('Sheet1 (2)'!I58*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I23" s="128">
+        <f>'Sheet1 (2)'!K58</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="129">
+        <f>'Sheet1 (2)'!N58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="132"/>
+      <c r="G24" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="134" t="str">
+        <f>TEXT('Sheet1 (2)'!I59*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="I24" s="135">
+        <f>'Sheet1 (2)'!K59</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="136">
+        <f>'Sheet1 (2)'!N59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="114"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+    </row>
+    <row r="26" spans="4:14" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="114"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+    </row>
+    <row r="27" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="141"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="144"/>
+    </row>
+    <row r="28" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D28" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="140" t="str">
+        <f>TEXT('Sheet1 (2)'!D8*100,"0.0") &amp; " PP"</f>
+        <v>3.2 PP</v>
+      </c>
+      <c r="I28" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S35*100,"0.0") &amp; " PP"</f>
+        <v>3.4 PP</v>
+      </c>
+      <c r="L28" s="148">
+        <f>'Sheet1 (2)'!X35</f>
+        <v>13.149108779380569</v>
+      </c>
+      <c r="M28" s="149">
+        <f>'Sheet1 (2)'!O35</f>
+        <v>0.03</v>
+      </c>
+      <c r="N28" s="150"/>
+    </row>
+    <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D29" s="138" t="str">
+        <f>TEXT('Sheet1 (2)'!D6*100,"0.00") &amp; " PP"</f>
+        <v>1.34 PP</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="151"/>
+      <c r="J29" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S36*100,"0.0") &amp; " PP"</f>
+        <v>3.8 PP</v>
+      </c>
+      <c r="L29" s="148">
+        <f>'Sheet1 (2)'!X36</f>
+        <v>14.464019657318627</v>
+      </c>
+      <c r="M29" s="149">
+        <f>'Sheet1 (2)'!O36</f>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="N29" s="150"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D30" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="151"/>
+      <c r="J30" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S37*100,"0.0") &amp; " PP"</f>
+        <v>-1.7 PP</v>
+      </c>
+      <c r="L30" s="148">
+        <f>'Sheet1 (2)'!X37</f>
+        <v>9.6426797715457528</v>
+      </c>
+      <c r="M30" s="149">
+        <f>'Sheet1 (2)'!O37</f>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="N30" s="150"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="F31" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="151"/>
+      <c r="J31" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S38*100,"0.0") &amp; " PP"</f>
+        <v>-4.3 PP</v>
+      </c>
+      <c r="L31" s="148">
+        <f>'Sheet1 (2)'!X38</f>
+        <v>9.918184907875629</v>
+      </c>
+      <c r="M31" s="149">
+        <f>'Sheet1 (2)'!O38</f>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="N31" s="150"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="I32" s="151"/>
+      <c r="J32" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S39*100,"0.0") &amp; " PP"</f>
+        <v>2.5 PP</v>
+      </c>
+      <c r="L32" s="148">
+        <f>'Sheet1 (2)'!X39</f>
+        <v>14.464019657318627</v>
+      </c>
+      <c r="M32" s="149">
+        <f>'Sheet1 (2)'!O39</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="N32" s="150"/>
+    </row>
+    <row r="33" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I33" s="152"/>
+      <c r="J33" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="154" t="str">
+        <f>TEXT('Sheet1 (2)'!S40*100,"0.0") &amp; " PP"</f>
+        <v>-0.6 PP</v>
+      </c>
+      <c r="L33" s="155">
+        <f>'Sheet1 (2)'!X40</f>
+        <v>6.4284531810305028</v>
+      </c>
+      <c r="M33" s="156">
+        <f>'Sheet1 (2)'!O40</f>
+        <v>-9.9999999999999672E-3</v>
+      </c>
+      <c r="N33" s="157"/>
+    </row>
+    <row r="34" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I35" s="141"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="N35" s="144"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I36" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S44*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L36" s="148">
+        <f>'Sheet1 (2)'!X44</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="149">
+        <f>'Sheet1 (2)'!O44</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="150"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I37" s="151"/>
+      <c r="J37" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S45*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L37" s="148">
+        <f>'Sheet1 (2)'!X45</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="149">
+        <f>'Sheet1 (2)'!O45</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="150"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I38" s="151"/>
+      <c r="J38" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S46*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L38" s="148">
+        <f>'Sheet1 (2)'!X46</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="149">
+        <f>'Sheet1 (2)'!O46</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="150"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I39" s="151"/>
+      <c r="J39" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S47*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L39" s="148">
+        <f>'Sheet1 (2)'!X47</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="149">
+        <f>'Sheet1 (2)'!O47</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="150"/>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I40" s="151"/>
+      <c r="J40" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S48*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L40" s="148">
+        <f>'Sheet1 (2)'!X48</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="149">
+        <f>'Sheet1 (2)'!O48</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="150"/>
+    </row>
+    <row r="41" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="152"/>
+      <c r="J41" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="154" t="str">
+        <f>TEXT('Sheet1 (2)'!S49*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L41" s="155">
+        <f>'Sheet1 (2)'!X49</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="156">
+        <f>'Sheet1 (2)'!O49</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="157"/>
+    </row>
+    <row r="42" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I43" s="141"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="N43" s="144"/>
+    </row>
+    <row r="44" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I44" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S52*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L44" s="148">
+        <f>'Sheet1 (2)'!X52</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="149">
+        <f>'Sheet1 (2)'!O52</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="150"/>
+    </row>
+    <row r="45" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I45" s="151"/>
+      <c r="J45" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S53*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L45" s="148">
+        <f>'Sheet1 (2)'!X53</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="149">
+        <f>'Sheet1 (2)'!O53</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="150"/>
+    </row>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I46" s="151"/>
+      <c r="J46" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S54*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L46" s="148">
+        <f>'Sheet1 (2)'!X54</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="149">
+        <f>'Sheet1 (2)'!O54</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="150"/>
+    </row>
+    <row r="47" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I47" s="151"/>
+      <c r="J47" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S55*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L47" s="148">
+        <f>'Sheet1 (2)'!X55</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="149">
+        <f>'Sheet1 (2)'!O55</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="150"/>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I48" s="151"/>
+      <c r="J48" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="147" t="str">
+        <f>TEXT('Sheet1 (2)'!S56*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L48" s="148">
+        <f>'Sheet1 (2)'!X56</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="149">
+        <f>'Sheet1 (2)'!O56</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="150"/>
+    </row>
+    <row r="49" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="152"/>
+      <c r="J49" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="154" t="str">
+        <f>TEXT('Sheet1 (2)'!S57*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L49" s="155">
+        <f>'Sheet1 (2)'!X57</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="156">
+        <f>'Sheet1 (2)'!O57</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="157"/>
+    </row>
+    <row r="50" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="163"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="M51" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" s="166"/>
+    </row>
+    <row r="52" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="162" t="str">
+        <f>TEXT('Sheet1 (2)'!D9*100,"0.0") &amp; " PP"</f>
+        <v>-1.8 PP</v>
+      </c>
+      <c r="I52" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T35*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L52" s="170">
+        <f>'Sheet1 (2)'!Z35</f>
+        <v>-1.6844315001623755E-2</v>
+      </c>
+      <c r="M52" s="192">
+        <f>'Sheet1 (2)'!M35</f>
+        <v>0.25</v>
+      </c>
+      <c r="N52" s="171"/>
+    </row>
+    <row r="53" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F53" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="172"/>
+      <c r="J53" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T36*100,"0.0") &amp; " PP"</f>
+        <v>-0.4 PP</v>
+      </c>
+      <c r="L53" s="170">
+        <f>'Sheet1 (2)'!Z36</f>
+        <v>-0.18981915255890058</v>
+      </c>
+      <c r="M53" s="192">
+        <f>'Sheet1 (2)'!M36</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="N53" s="171"/>
+    </row>
+    <row r="54" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F54" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="172"/>
+      <c r="J54" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T37*100,"0.0") &amp; " PP"</f>
+        <v>-0.3 PP</v>
+      </c>
+      <c r="L54" s="170">
+        <f>'Sheet1 (2)'!Z37</f>
+        <v>-0.8487526748634231</v>
+      </c>
+      <c r="M54" s="192">
+        <f>'Sheet1 (2)'!M37</f>
+        <v>0.04</v>
+      </c>
+      <c r="N54" s="171"/>
+    </row>
+    <row r="55" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I55" s="172"/>
+      <c r="J55" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T38*100,"0.0") &amp; " PP"</f>
+        <v>-0.4 PP</v>
+      </c>
+      <c r="L55" s="170">
+        <f>'Sheet1 (2)'!Z38</f>
+        <v>-0.14715480045081897</v>
+      </c>
+      <c r="M55" s="192">
+        <f>'Sheet1 (2)'!M38</f>
+        <v>0.3</v>
+      </c>
+      <c r="N55" s="173"/>
+    </row>
+    <row r="56" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I56" s="172"/>
+      <c r="J56" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T39*100,"0.0") &amp; " PP"</f>
+        <v>2.7 PP</v>
+      </c>
+      <c r="L56" s="170">
+        <f>'Sheet1 (2)'!Z39</f>
+        <v>3.1238345360460293</v>
+      </c>
+      <c r="M56" s="192">
+        <f>'Sheet1 (2)'!M39</f>
+        <v>0.1</v>
+      </c>
+      <c r="N56" s="173"/>
+    </row>
+    <row r="57" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="174"/>
+      <c r="J57" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="176" t="str">
+        <f>TEXT('Sheet1 (2)'!T40*100,"0.0") &amp; " PP"</f>
+        <v>-3.4 PP</v>
+      </c>
+      <c r="L57" s="177">
+        <f>'Sheet1 (2)'!Z40</f>
+        <v>-4.9627986649167815</v>
+      </c>
+      <c r="M57" s="193">
+        <f>'Sheet1 (2)'!M40</f>
+        <v>0.08</v>
+      </c>
+      <c r="N57" s="178"/>
+    </row>
+    <row r="58" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F59" s="114"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="166"/>
+    </row>
+    <row r="60" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I60" s="167" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T43*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L60" s="170">
+        <f>'Sheet1 (2)'!Z43</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="168">
+        <f>'Sheet1 (2)'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="173"/>
+    </row>
+    <row r="61" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I61" s="172"/>
+      <c r="J61" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T44*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L61" s="170">
+        <f>'Sheet1 (2)'!Z44</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="168">
+        <f>'Sheet1 (2)'!M44</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="173"/>
+    </row>
+    <row r="62" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I62" s="172"/>
+      <c r="J62" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T45*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L62" s="170">
+        <f>'Sheet1 (2)'!Z45</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="168">
+        <f>'Sheet1 (2)'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="173"/>
+    </row>
+    <row r="63" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I63" s="172"/>
+      <c r="J63" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T46*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L63" s="170">
+        <f>'Sheet1 (2)'!Z46</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="168">
+        <f>'Sheet1 (2)'!M46</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="173"/>
+    </row>
+    <row r="64" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I64" s="172"/>
+      <c r="J64" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T47*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L64" s="170">
+        <f>'Sheet1 (2)'!Z47</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="168">
+        <f>'Sheet1 (2)'!M47</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="173"/>
+    </row>
+    <row r="65" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I65" s="174"/>
+      <c r="J65" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="176" t="str">
+        <f>TEXT('Sheet1 (2)'!T48*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L65" s="177">
+        <f>'Sheet1 (2)'!Z48</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="175">
+        <f>'Sheet1 (2)'!M48</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="178"/>
+    </row>
+    <row r="66" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I67" s="163"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="M67" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="N67" s="166"/>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I68" s="167" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T51*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L68" s="170">
+        <f>'Sheet1 (2)'!Z51</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="168">
+        <f>'Sheet1 (2)'!M51</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="173"/>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I69" s="172"/>
+      <c r="J69" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T52*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L69" s="170">
+        <f>'Sheet1 (2)'!Z52</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="168">
+        <f>'Sheet1 (2)'!M52</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="173"/>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I70" s="172"/>
+      <c r="J70" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T53*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L70" s="170">
+        <f>'Sheet1 (2)'!Z53</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="168">
+        <f>'Sheet1 (2)'!M53</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="173"/>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I71" s="172"/>
+      <c r="J71" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T54*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L71" s="170">
+        <f>'Sheet1 (2)'!Z54</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="168">
+        <f>'Sheet1 (2)'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="173"/>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I72" s="172"/>
+      <c r="J72" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="169" t="str">
+        <f>TEXT('Sheet1 (2)'!T55*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L72" s="170">
+        <f>'Sheet1 (2)'!Z55</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="168">
+        <f>'Sheet1 (2)'!M55</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="173"/>
+    </row>
+    <row r="73" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I73" s="174"/>
+      <c r="J73" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="176" t="str">
+        <f>TEXT('Sheet1 (2)'!T56*100,"0.0") &amp; " PP"</f>
+        <v>0.0 PP</v>
+      </c>
+      <c r="L73" s="177">
+        <f>'Sheet1 (2)'!Z56</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="175">
+        <f>'Sheet1 (2)'!M56</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="178"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC1B6B0-472D-4B50-B71D-101D956C8614}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,7 +3832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="56" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1330,18 +3902,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="52">
         <f>SUM(C6:D6)</f>
         <v>2.6094830253804015E-2</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="49">
         <f>C5+0.5*(C5*D5)</f>
         <v>1.2700214972131042E-2</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="50">
         <f>D5+0.5*(D5*C5)</f>
         <v>1.3394615281672973E-2</v>
       </c>
@@ -1351,897 +3923,857 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <f>SUM(S35:S40)</f>
         <v>3.1511544011544004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65">
         <f>SUM(T35:T40)</f>
         <v>-1.8200893972350109E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="135"/>
-    </row>
-    <row r="11" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-    </row>
-    <row r="12" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-    </row>
-    <row r="13" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-    </row>
-    <row r="14" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-    </row>
-    <row r="15" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-    </row>
-    <row r="16" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-    </row>
-    <row r="17" spans="1:27" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="133"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-    </row>
-    <row r="18" spans="1:27" s="62" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="55"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="A30" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="56" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="Q30" s="68" t="s">
+      <c r="Q30" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="102">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="179">
         <v>2023</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="103">
+      <c r="D32" s="181"/>
+      <c r="E32" s="180">
         <v>2024</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="102">
+      <c r="F32" s="181"/>
+      <c r="J32" s="179">
         <v>2023</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="102">
+      <c r="K32" s="181"/>
+      <c r="L32" s="179">
         <v>2024</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="102" t="s">
+      <c r="M32" s="181"/>
+      <c r="N32" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="105"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-    </row>
-    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="89" t="s">
+      <c r="O32" s="181"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="94" t="s">
+      <c r="K33" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="90" t="s">
+      <c r="L33" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="94" t="s">
+      <c r="M33" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="90" t="s">
+      <c r="N33" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="94" t="s">
+      <c r="O33" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="120" t="s">
+      <c r="R33" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="S33" s="100" t="s">
+      <c r="S33" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="T33" s="104" t="s">
+      <c r="T33" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="100" t="s">
+      <c r="U33" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="V33" s="101" t="s">
+      <c r="V33" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="W33" s="101" t="s">
+      <c r="W33" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="X33" s="102" t="s">
+      <c r="X33" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="70"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A34" s="89" t="s">
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="181"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="94"/>
-      <c r="H34" s="89" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="H34" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="94"/>
-      <c r="Q34" s="86" t="s">
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="77"/>
+      <c r="Q34" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="120"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="130">
+      <c r="R34" s="97"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="107">
         <v>2023</v>
       </c>
-      <c r="Y34" s="69">
+      <c r="Y34" s="27">
         <v>2024</v>
       </c>
-      <c r="Z34" s="131" t="s">
+      <c r="Z34" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA34" s="70"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A35" s="90" t="s">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="92">
+      <c r="B35" s="75">
         <f>I35+R35</f>
         <v>6.6881044443387189E-2</v>
       </c>
-      <c r="C35" s="95">
+      <c r="C35" s="78">
         <v>120378.25</v>
       </c>
-      <c r="D35" s="96">
-        <f>C35/$B$3</f>
+      <c r="D35" s="79">
+        <f t="shared" ref="D35:D40" si="1">C35/$B$3</f>
         <v>0.25</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="66">
         <v>138341.84</v>
       </c>
-      <c r="F35" s="96">
-        <f>E35/$B$4</f>
+      <c r="F35" s="79">
+        <f t="shared" ref="F35:F40" si="2">E35/$B$4</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="108">
+      <c r="I35" s="88">
         <f>K35*N35</f>
         <v>3.3154062432412909E-2</v>
       </c>
-      <c r="J35" s="110">
+      <c r="J35" s="90">
         <v>9154.86</v>
       </c>
-      <c r="K35" s="96">
-        <f>J35/$C$3</f>
+      <c r="K35" s="79">
+        <f t="shared" ref="K35:K40" si="3">J35/$C$3</f>
         <v>0.22</v>
       </c>
-      <c r="L35" s="110">
+      <c r="L35" s="90">
         <v>10534.5</v>
       </c>
-      <c r="M35" s="96">
-        <f>L35/$C$4</f>
+      <c r="M35" s="79">
+        <f t="shared" ref="M35:M40" si="4">L35/$C$4</f>
         <v>0.25</v>
       </c>
-      <c r="N35" s="112">
-        <f>L35/J35-1</f>
+      <c r="N35" s="92">
+        <f t="shared" ref="N35:N40" si="5">L35/J35-1</f>
         <v>0.15070028378369504</v>
       </c>
-      <c r="O35" s="113">
-        <f>M35-K35</f>
+      <c r="O35" s="93">
+        <f t="shared" ref="O35:O40" si="6">M35-K35</f>
         <v>0.03</v>
       </c>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="87" t="s">
+      <c r="P35" s="57"/>
+      <c r="Q35" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="R35" s="106">
+      <c r="R35" s="86">
         <f>U35/$D$3</f>
         <v>3.3726982010974287E-2</v>
       </c>
-      <c r="S35" s="112">
+      <c r="S35" s="92">
         <f>V35/$D$3</f>
         <v>3.4090909090909081E-2</v>
       </c>
-      <c r="T35" s="96">
-        <f>W35/$D$3</f>
+      <c r="T35" s="79">
+        <f t="shared" ref="R35:T40" si="7">W35/$D$3</f>
         <v>-3.639270799347937E-4</v>
       </c>
-      <c r="U35" s="121">
+      <c r="U35" s="98">
         <f>SUM(V35:W35)</f>
         <v>0.39026218463101109</v>
       </c>
-      <c r="V35" s="116">
+      <c r="V35" s="6">
         <f>O35*X35</f>
         <v>0.39447326338141703</v>
       </c>
-      <c r="W35" s="117">
+      <c r="W35" s="32">
         <f>M35*Z35</f>
         <v>-4.2110787504059388E-3</v>
       </c>
-      <c r="X35" s="125">
-        <f>C35/J35</f>
+      <c r="X35" s="102">
+        <f t="shared" ref="X35:X40" si="8">C35/J35</f>
         <v>13.149108779380569</v>
       </c>
-      <c r="Y35" s="119">
-        <f>E35/L35</f>
+      <c r="Y35" s="96">
+        <f t="shared" ref="Y35:Y40" si="9">E35/L35</f>
         <v>13.132264464378945</v>
       </c>
-      <c r="Z35" s="126">
-        <f>Y35-X35</f>
+      <c r="Z35" s="103">
+        <f t="shared" ref="Z35:Z40" si="10">Y35-X35</f>
         <v>-1.6844315001623755E-2</v>
       </c>
-      <c r="AA35" s="70"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="92">
-        <f>I36+R36</f>
+      <c r="B36" s="75">
+        <f t="shared" ref="B36:B40" si="11">I36+R36</f>
         <v>6.6628719448794199E-2</v>
       </c>
-      <c r="C36" s="95">
+      <c r="C36" s="78">
         <v>120378.25</v>
       </c>
-      <c r="D36" s="96">
-        <f>C36/$B$3</f>
+      <c r="D36" s="79">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="66">
         <v>138341.84000000003</v>
       </c>
-      <c r="F36" s="96">
-        <f>E36/$B$4</f>
+      <c r="F36" s="79">
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="108">
-        <f>K36*N36</f>
+      <c r="I36" s="88">
+        <f t="shared" ref="I36:I40" si="12">K36*N36</f>
         <v>3.2901737437819899E-2</v>
       </c>
-      <c r="J36" s="110">
+      <c r="J36" s="90">
         <v>8322.6</v>
       </c>
-      <c r="K36" s="96">
-        <f>J36/$C$3</f>
+      <c r="K36" s="79">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L36" s="110">
+      <c r="L36" s="90">
         <v>9691.74</v>
       </c>
-      <c r="M36" s="96">
-        <f>L36/$C$4</f>
+      <c r="M36" s="79">
+        <f t="shared" si="4"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="N36" s="112">
-        <f>L36/J36-1</f>
+      <c r="N36" s="92">
+        <f t="shared" si="5"/>
         <v>0.1645086871890995</v>
       </c>
-      <c r="O36" s="113">
-        <f>M36-K36</f>
+      <c r="O36" s="93">
+        <f t="shared" si="6"/>
         <v>2.9999999999999971E-2</v>
       </c>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="87" t="s">
+      <c r="P36" s="57"/>
+      <c r="Q36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="106">
+      <c r="R36" s="86">
         <f>U36/$D$3</f>
         <v>3.3726982010974307E-2</v>
       </c>
-      <c r="S36" s="112">
-        <f>V36/$D$3</f>
+      <c r="S36" s="92">
+        <f t="shared" si="7"/>
         <v>3.7499999999999964E-2</v>
       </c>
-      <c r="T36" s="96">
-        <f>W36/$D$3</f>
+      <c r="T36" s="79">
+        <f t="shared" si="7"/>
         <v>-3.7730179890256578E-3</v>
       </c>
-      <c r="U36" s="121">
-        <f>SUM(V36:W36)</f>
+      <c r="U36" s="98">
+        <f t="shared" ref="U36:U40" si="13">SUM(V36:W36)</f>
         <v>0.39026218463101126</v>
       </c>
-      <c r="V36" s="116">
-        <f>O36*X36</f>
+      <c r="V36" s="6">
+        <f t="shared" ref="V36:V40" si="14">O36*X36</f>
         <v>0.43392058971955838</v>
       </c>
-      <c r="W36" s="117">
-        <f>M36*Z36</f>
+      <c r="W36" s="32">
+        <f t="shared" ref="W36:W40" si="15">M36*Z36</f>
         <v>-4.3658405088547132E-2</v>
       </c>
-      <c r="X36" s="125">
-        <f>C36/J36</f>
+      <c r="X36" s="102">
+        <f t="shared" si="8"/>
         <v>14.464019657318627</v>
       </c>
-      <c r="Y36" s="119">
-        <f>E36/L36</f>
+      <c r="Y36" s="96">
+        <f t="shared" si="9"/>
         <v>14.274200504759726</v>
       </c>
-      <c r="Z36" s="126">
-        <f>Y36-X36</f>
+      <c r="Z36" s="103">
+        <f t="shared" si="10"/>
         <v>-0.18981915255890058</v>
       </c>
-      <c r="AA36" s="70"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A37" s="90" t="s">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="92">
-        <f>I37+R37</f>
+      <c r="B37" s="75">
+        <f t="shared" si="11"/>
         <v>-3.9096030509638099E-2</v>
       </c>
-      <c r="C37" s="95">
+      <c r="C37" s="78">
         <v>24075.65</v>
       </c>
-      <c r="D37" s="96">
-        <f>C37/$B$3</f>
+      <c r="D37" s="79">
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="66">
         <v>14822.34</v>
       </c>
-      <c r="F37" s="96">
-        <f>E37/$B$4</f>
+      <c r="F37" s="79">
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="108">
-        <f>K37*N37</f>
+      <c r="I37" s="88">
+        <f t="shared" si="12"/>
         <v>-1.9495350010813921E-2</v>
       </c>
-      <c r="J37" s="110">
+      <c r="J37" s="90">
         <v>2496.7799999999997</v>
       </c>
-      <c r="K37" s="96">
-        <f>J37/$C$3</f>
+      <c r="K37" s="79">
+        <f t="shared" si="3"/>
         <v>5.9999999999999991E-2</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="90">
         <v>1685.52</v>
       </c>
-      <c r="M37" s="96">
-        <f>L37/$C$4</f>
+      <c r="M37" s="79">
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="N37" s="112">
-        <f>L37/J37-1</f>
+      <c r="N37" s="92">
+        <f t="shared" si="5"/>
         <v>-0.32492250018023205</v>
       </c>
-      <c r="O37" s="113">
-        <f>M37-K37</f>
+      <c r="O37" s="93">
+        <f t="shared" si="6"/>
         <v>-1.999999999999999E-2</v>
       </c>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="87" t="s">
+      <c r="P37" s="57"/>
+      <c r="Q37" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R37" s="106">
-        <f>U37/$D$3</f>
+      <c r="R37" s="86">
+        <f t="shared" si="7"/>
         <v>-1.9600680498824182E-2</v>
       </c>
-      <c r="S37" s="112">
-        <f>V37/$D$3</f>
+      <c r="S37" s="92">
+        <f t="shared" si="7"/>
         <v>-1.6666666666666659E-2</v>
       </c>
-      <c r="T37" s="96">
-        <f>W37/$D$3</f>
+      <c r="T37" s="79">
+        <f t="shared" si="7"/>
         <v>-2.9340138321575222E-3</v>
       </c>
-      <c r="U37" s="121">
-        <f>SUM(V37:W37)</f>
+      <c r="U37" s="98">
+        <f t="shared" si="13"/>
         <v>-0.22680370242545189</v>
       </c>
-      <c r="V37" s="116">
-        <f>O37*X37</f>
+      <c r="V37" s="6">
+        <f t="shared" si="14"/>
         <v>-0.19285359543091496</v>
       </c>
-      <c r="W37" s="117">
-        <f>M37*Z37</f>
+      <c r="W37" s="32">
+        <f t="shared" si="15"/>
         <v>-3.3950106994536926E-2</v>
       </c>
-      <c r="X37" s="125">
-        <f>C37/J37</f>
+      <c r="X37" s="102">
+        <f t="shared" si="8"/>
         <v>9.6426797715457528</v>
       </c>
-      <c r="Y37" s="119">
-        <f>E37/L37</f>
+      <c r="Y37" s="96">
+        <f t="shared" si="9"/>
         <v>8.7939270966823297</v>
       </c>
-      <c r="Z37" s="126">
-        <f>Y37-X37</f>
+      <c r="Z37" s="103">
+        <f t="shared" si="10"/>
         <v>-0.8487526748634231</v>
       </c>
-      <c r="AA37" s="70"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A38" s="90" t="s">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="92">
-        <f>I38+R38</f>
+      <c r="B38" s="75">
+        <f t="shared" si="11"/>
         <v>-9.2887462571305951E-2</v>
       </c>
-      <c r="C38" s="95">
+      <c r="C38" s="78">
         <v>144453.9</v>
       </c>
-      <c r="D38" s="96">
-        <f>C38/$B$3</f>
+      <c r="D38" s="79">
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="66">
         <v>123519.5</v>
       </c>
-      <c r="F38" s="96">
-        <f>E38/$B$4</f>
+      <c r="F38" s="79">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="H38" s="90" t="s">
+      <c r="H38" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="108">
-        <f>K38*N38</f>
+      <c r="I38" s="88">
+        <f t="shared" si="12"/>
         <v>-4.6215125081104445E-2</v>
       </c>
-      <c r="J38" s="110">
+      <c r="J38" s="90">
         <v>14564.55</v>
       </c>
-      <c r="K38" s="96">
-        <f>J38/$C$3</f>
+      <c r="K38" s="79">
+        <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="L38" s="110">
+      <c r="L38" s="90">
         <v>12641.4</v>
       </c>
-      <c r="M38" s="96">
-        <f>L38/$C$4</f>
+      <c r="M38" s="79">
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N38" s="112">
-        <f>L38/J38-1</f>
+      <c r="N38" s="92">
+        <f t="shared" si="5"/>
         <v>-0.13204321451744128</v>
       </c>
-      <c r="O38" s="113">
-        <f>M38-K38</f>
+      <c r="O38" s="93">
+        <f t="shared" si="6"/>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="87" t="s">
+      <c r="P38" s="57"/>
+      <c r="Q38" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="106">
-        <f>U38/$D$3</f>
+      <c r="R38" s="86">
+        <f t="shared" si="7"/>
         <v>-4.6672337490201513E-2</v>
       </c>
-      <c r="S38" s="112">
-        <f>V38/$D$3</f>
+      <c r="S38" s="92">
+        <f t="shared" si="7"/>
         <v>-4.2857142857142844E-2</v>
       </c>
-      <c r="T38" s="96">
-        <f>W38/$D$3</f>
+      <c r="T38" s="79">
+        <f t="shared" si="7"/>
         <v>-3.8151946330586689E-3</v>
       </c>
-      <c r="U38" s="121">
-        <f>SUM(V38:W38)</f>
+      <c r="U38" s="98">
+        <f t="shared" si="13"/>
         <v>-0.54005568552902705</v>
       </c>
-      <c r="V38" s="116">
-        <f>O38*X38</f>
+      <c r="V38" s="6">
+        <f t="shared" si="14"/>
         <v>-0.49590924539378134</v>
       </c>
-      <c r="W38" s="117">
-        <f>M38*Z38</f>
+      <c r="W38" s="32">
+        <f t="shared" si="15"/>
         <v>-4.4146440135245692E-2</v>
       </c>
-      <c r="X38" s="125">
-        <f>C38/J38</f>
+      <c r="X38" s="102">
+        <f t="shared" si="8"/>
         <v>9.918184907875629</v>
       </c>
-      <c r="Y38" s="119">
-        <f>E38/L38</f>
+      <c r="Y38" s="96">
+        <f t="shared" si="9"/>
         <v>9.77103010742481</v>
       </c>
-      <c r="Z38" s="126">
-        <f>Y38-X38</f>
+      <c r="Z38" s="103">
+        <f t="shared" si="10"/>
         <v>-0.14715480045081897</v>
       </c>
-      <c r="AA38" s="70"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A39" s="90" t="s">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="92">
-        <f>I39+R39</f>
+      <c r="B39" s="75">
+        <f t="shared" si="11"/>
         <v>7.325822247884424E-2</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="78">
         <v>48151.3</v>
       </c>
-      <c r="D39" s="96">
-        <f>C39/$B$3</f>
+      <c r="D39" s="79">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="66">
         <v>74111.7</v>
       </c>
-      <c r="F39" s="96">
-        <f>E39/$B$4</f>
+      <c r="F39" s="79">
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="108">
-        <f>K39*N39</f>
+      <c r="I39" s="88">
+        <f t="shared" si="12"/>
         <v>2.1261624972965177E-2</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="90">
         <v>3329.04</v>
       </c>
-      <c r="K39" s="96">
-        <f>J39/$C$3</f>
+      <c r="K39" s="79">
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="90">
         <v>4213.8</v>
       </c>
-      <c r="M39" s="96">
-        <f>L39/$C$4</f>
+      <c r="M39" s="79">
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N39" s="112">
-        <f>L39/J39-1</f>
+      <c r="N39" s="92">
+        <f t="shared" si="5"/>
         <v>0.2657703121620647</v>
       </c>
-      <c r="O39" s="113">
-        <f>M39-K39</f>
+      <c r="O39" s="93">
+        <f t="shared" si="6"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="87" t="s">
+      <c r="P39" s="57"/>
+      <c r="Q39" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="106">
-        <f>U39/$D$3</f>
+      <c r="R39" s="86">
+        <f t="shared" si="7"/>
         <v>5.1996597505879066E-2</v>
       </c>
-      <c r="S39" s="112">
-        <f>V39/$D$3</f>
+      <c r="S39" s="92">
+        <f t="shared" si="7"/>
         <v>2.5000000000000005E-2</v>
       </c>
-      <c r="T39" s="96">
-        <f>W39/$D$3</f>
+      <c r="T39" s="79">
+        <f t="shared" si="7"/>
         <v>2.6996597505879055E-2</v>
       </c>
-      <c r="U39" s="121">
-        <f>SUM(V39:W39)</f>
+      <c r="U39" s="98">
+        <f t="shared" si="13"/>
         <v>0.60166384675097562</v>
       </c>
-      <c r="V39" s="116">
-        <f>O39*X39</f>
+      <c r="V39" s="6">
+        <f t="shared" si="14"/>
         <v>0.28928039314637261</v>
       </c>
-      <c r="W39" s="117">
-        <f>M39*Z39</f>
+      <c r="W39" s="32">
+        <f t="shared" si="15"/>
         <v>0.31238345360460296</v>
       </c>
-      <c r="X39" s="125">
-        <f>C39/J39</f>
+      <c r="X39" s="102">
+        <f t="shared" si="8"/>
         <v>14.464019657318627</v>
       </c>
-      <c r="Y39" s="119">
-        <f>E39/L39</f>
+      <c r="Y39" s="96">
+        <f t="shared" si="9"/>
         <v>17.587854193364656</v>
       </c>
-      <c r="Z39" s="126">
-        <f>Y39-X39</f>
+      <c r="Z39" s="103">
+        <f t="shared" si="10"/>
         <v>3.1238345360460293</v>
       </c>
-      <c r="AA39" s="70"/>
-    </row>
-    <row r="40" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="77" t="s">
+    </row>
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="93">
-        <f>I40+R40</f>
+      <c r="B40" s="76">
+        <f t="shared" si="11"/>
         <v>-4.8857593521235879E-2</v>
       </c>
-      <c r="C40" s="97">
+      <c r="C40" s="80">
         <v>24075.65</v>
       </c>
-      <c r="D40" s="99">
-        <f>C40/$B$3</f>
+      <c r="D40" s="82">
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="81">
         <v>4940.78</v>
       </c>
-      <c r="F40" s="99">
-        <f>E40/$B$4</f>
+      <c r="F40" s="82">
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H40" s="77" t="s">
+      <c r="H40" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="109">
-        <f>K40*N40</f>
+      <c r="I40" s="89">
+        <f t="shared" si="12"/>
         <v>-8.9907000216278236E-3</v>
       </c>
-      <c r="J40" s="111">
+      <c r="J40" s="91">
         <v>3745.1699999999987</v>
       </c>
-      <c r="K40" s="99">
-        <f>J40/$C$3</f>
+      <c r="K40" s="82">
+        <f t="shared" si="3"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="L40" s="111">
+      <c r="L40" s="91">
         <v>3371.04</v>
       </c>
-      <c r="M40" s="99">
-        <f>L40/$C$4</f>
+      <c r="M40" s="82">
+        <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="114">
-        <f>L40/J40-1</f>
+      <c r="N40" s="94">
+        <f t="shared" si="5"/>
         <v>-9.9896666906975851E-2</v>
       </c>
-      <c r="O40" s="115">
-        <f>M40-K40</f>
+      <c r="O40" s="95">
+        <f t="shared" si="6"/>
         <v>-9.9999999999999672E-3</v>
       </c>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="88" t="s">
+      <c r="P40" s="57"/>
+      <c r="Q40" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="R40" s="107">
-        <f>U40/$D$3</f>
+      <c r="R40" s="87">
+        <f t="shared" si="7"/>
         <v>-3.9866893499608057E-2</v>
       </c>
-      <c r="S40" s="114">
-        <f>V40/$D$3</f>
+      <c r="S40" s="94">
+        <f t="shared" si="7"/>
         <v>-5.5555555555555384E-3</v>
       </c>
-      <c r="T40" s="99">
-        <f>W40/$D$3</f>
+      <c r="T40" s="82">
+        <f t="shared" si="7"/>
         <v>-3.4311337944052521E-2</v>
       </c>
-      <c r="U40" s="122">
-        <f>SUM(V40:W40)</f>
+      <c r="U40" s="99">
+        <f t="shared" si="13"/>
         <v>-0.46130842500364733</v>
       </c>
-      <c r="V40" s="123">
-        <f>O40*X40</f>
+      <c r="V40" s="100">
+        <f t="shared" si="14"/>
         <v>-6.4284531810304815E-2</v>
       </c>
-      <c r="W40" s="124">
-        <f>M40*Z40</f>
+      <c r="W40" s="101">
+        <f t="shared" si="15"/>
         <v>-0.39702389319334253</v>
       </c>
-      <c r="X40" s="127">
-        <f>C40/J40</f>
+      <c r="X40" s="104">
+        <f t="shared" si="8"/>
         <v>6.4284531810305028</v>
       </c>
-      <c r="Y40" s="128">
-        <f>E40/L40</f>
+      <c r="Y40" s="105">
+        <f t="shared" si="9"/>
         <v>1.4656545161137216</v>
       </c>
-      <c r="Z40" s="129">
-        <f>Y40-X40</f>
+      <c r="Z40" s="106">
+        <f t="shared" si="10"/>
         <v>-4.9627986649167815</v>
       </c>
-      <c r="AA40" s="70"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A41" s="81" t="s">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="67">
         <f>SUM(B35:B40)</f>
         <v>2.5926899768845699E-2</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="21">
         <f>SUM(C35:C40)</f>
         <v>481513.00000000006</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="68">
         <f>SUM(D35:D40)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="21">
         <f>SUM(E35:E40)</f>
         <v>494078.00000000012</v>
       </c>
-      <c r="F41" s="85">
+      <c r="F41" s="68">
         <f>SUM(F35:F40)</f>
         <v>1</v>
       </c>
@@ -2265,133 +4797,96 @@
         <v>42138</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" ref="M41" si="1">SUM(M35:M40)</f>
+        <f t="shared" ref="M41" si="16">SUM(M35:M40)</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="81" t="s">
+      <c r="Q41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="83">
+      <c r="R41" s="67">
         <f>SUM(R35:R40)</f>
         <v>1.3310650039193898E-2</v>
       </c>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="118">
+      <c r="U41" s="33">
         <f>SUM(U35:U40)</f>
         <v>0.15402040305487164</v>
       </c>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="70"/>
-      <c r="AA41" s="70"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H43" t="s">
         <v>49</v>
       </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H44" t="s">
         <v>50</v>
       </c>
-      <c r="Q44" s="66" t="s">
+      <c r="Q44" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="66" t="s">
+      <c r="R44" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66" t="s">
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="Q46" s="66" t="s">
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q46" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="66" t="s">
+      <c r="R46" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="66"/>
-      <c r="T46" s="66"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66" t="s">
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="66"/>
-      <c r="T47" s="66"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
     </row>
     <row r="49" spans="8:20" x14ac:dyDescent="0.35">
-      <c r="Q49" s="66"/>
-      <c r="R49" s="66"/>
-      <c r="S49" s="66"/>
-      <c r="T49" s="66"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
     </row>
     <row r="50" spans="8:20" x14ac:dyDescent="0.35">
-      <c r="Q50" s="66" t="s">
+      <c r="Q50" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="66"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="66"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
     </row>
     <row r="51" spans="8:20" x14ac:dyDescent="0.35">
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
     </row>
     <row r="52" spans="8:20" x14ac:dyDescent="0.35">
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2407,7 +4902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D386367-0318-4CB5-890F-425467338798}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
@@ -2559,86 +5054,86 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B13" s="52">
+      <c r="B13" s="182">
         <v>2023</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="J13" s="52">
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="184"/>
+      <c r="J13" s="182">
         <v>2024</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="Q13" s="52" t="s">
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="184"/>
+      <c r="Q13" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="184"/>
       <c r="U13" s="27"/>
-      <c r="V13" s="55" t="s">
+      <c r="V13" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="57"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="190"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="52" t="s">
+      <c r="B14" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="184"/>
+      <c r="D14" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="184"/>
+      <c r="F14" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="J14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="52" t="s">
+      <c r="G14" s="184"/>
+      <c r="J14" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="184"/>
+      <c r="L14" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="52" t="s">
+      <c r="M14" s="184"/>
+      <c r="N14" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="54"/>
+      <c r="O14" s="184"/>
       <c r="Q14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="R14" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="T14" s="50"/>
+      <c r="T14" s="186"/>
       <c r="V14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="W14" s="51" t="s">
+      <c r="W14" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="50"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="186"/>
       <c r="AC14" s="45" t="s">
         <v>0</v>
       </c>
@@ -3384,4 +5879,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51504B3C-52CA-4F9C-9A8B-0D6834931293}">
+  <dimension ref="A2:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="111"/>
+    <col min="4" max="4" width="7.36328125" style="111" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="111" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="111" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="111"/>
+    <col min="8" max="8" width="10.1796875" style="111" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="111" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="116">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I3" s="117">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C4" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="116">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I4" s="116">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="116">
+        <v>0.22</v>
+      </c>
+      <c r="I5" s="116">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="E6" s="112"/>
+      <c r="F6" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="116">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I6" s="116">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="116">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="I7" s="116">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F8" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="116">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I8" s="116">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F12" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="113">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C25" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C26" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E32" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E41" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="111" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>